--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_2_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_2_sine_01_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.29000000000051</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>9.992007221626409e-15</v>
+        <v>1.854072451124011e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.623767952376511e-14</v>
+        <v>2.849572429871235e-13</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>36.70732766580761</v>
+        <v>39.86990529515426</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[26.982573147646406, 46.43208218396882]</t>
+          <t>[28.685230265483504, 51.05458032482502]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.320455022048918e-12</v>
+        <v>3.622258049063021e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>6.640910044097836e-12</v>
+        <v>3.622258049063021e-11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.767342413731195</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4528686746331188, 2.081816152829272]</t>
+          <t>[1.540921321580579, 2.144710900648888]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>49.3559275853638</v>
+        <v>59.74057958255761</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[43.44590925472427, 55.26594591600333]</t>
+          <t>[53.25549793978999, 66.22566122532523]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.17639639639676</v>
+        <v>18.11289289289329</v>
       </c>
       <c r="X2" t="n">
-        <v>16.91063063063098</v>
+        <v>16.88142142142179</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.44216216216255</v>
+        <v>19.34436436436479</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.30000000000036</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>5.450084827884893e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>5.003822082817607e-15</v>
+        <v>2.515265482805224e-12</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>42.53836870550056</v>
+        <v>37.62971967224194</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.189584603188166, 54.88715280781295]</t>
+          <t>[27.410584190997007, 47.84885515348687]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.371767144320302e-10</v>
+        <v>9.584999460798826e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>1.371767144320302e-10</v>
+        <v>1.916999892159765e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6352369529781159</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.35850006257180667, 0.9119738433844251]</t>
+          <t>[1.3396581285578097, 1.9434477076261185]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.052247222421698e-05</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.052247222421698e-05</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>61.0949474053166</v>
+        <v>57.21007340685843</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.76688039943876, 67.42301441119443]</t>
+          <t>[50.832684747468015, 63.587462066248854]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.84324324324357</v>
+        <v>18.37243243243276</v>
       </c>
       <c r="X3" t="n">
-        <v>20.77297297297328</v>
+        <v>17.17747747747779</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.91351351351386</v>
+        <v>19.56738738738774</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_2_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_2_sine_01_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.63000000000057</v>
+        <v>24.82000000000044</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.854072451124011e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.849572429871235e-13</v>
+        <v>2.295034676227714e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.86990529515426</v>
+        <v>47.2046598127392</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[28.685230265483504, 51.05458032482502]</t>
+          <t>[36.802000909732755, 57.60731871574565]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.622258049063021e-11</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="N2" t="n">
-        <v>3.622258049063021e-11</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O2" t="n">
-        <v>1.842816111114733</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.540921321580579, 2.144710900648888]</t>
+          <t>[1.1383949355350405, 1.6415529180919632]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.74057958255761</v>
+        <v>64.41440772353238</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.25549793978999, 66.22566122532523]</t>
+          <t>[57.94501689217564, 70.88379855488913]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.11289289289329</v>
+        <v>19.32928928928963</v>
       </c>
       <c r="X2" t="n">
-        <v>16.88142142142179</v>
+        <v>18.33549549549582</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.34436436436479</v>
+        <v>20.32308308308344</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.87000000000045</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.450084827884893e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.515265482805224e-12</v>
+        <v>2.295034676227714e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>37.62971967224194</v>
+        <v>44.88484057826322</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[27.410584190997007, 47.84885515348687]</t>
+          <t>[34.85047701205321, 54.919204144473234]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.584999460798826e-12</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="N3" t="n">
-        <v>1.916999892159765e-11</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641552918091964</v>
+        <v>0.08176317216550011</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.3396581285578097, 1.9434477076261185]</t>
+          <t>[-0.1823947686768852, 0.3459211130078854]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.5422210148122666</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.5422210148122666</v>
       </c>
       <c r="S3" t="n">
-        <v>57.21007340685843</v>
+        <v>57.50186500665524</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.832684747468015, 63.587462066248854]</t>
+          <t>[51.05956448482241, 63.944165528488064]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.37243243243276</v>
+        <v>23.51003003003031</v>
       </c>
       <c r="X3" t="n">
-        <v>17.17747747747779</v>
+        <v>22.50858858858886</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.56738738738774</v>
+        <v>24.51147147147176</v>
       </c>
     </row>
   </sheetData>
